--- a/data/excel/temp_prot.xlsx
+++ b/data/excel/temp_prot.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\habir\OneDrive\デスクトップ\連太郎\printer\new\data\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B33D9F-36E1-49F4-8771-51C00BBEE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>（有）羽広鉄工所</t>
   </si>
@@ -33,10 +42,6 @@
   <si>
     <t>客先
 納期</t>
-  </si>
-  <si>
-    <t>整理
-番号</t>
   </si>
   <si>
     <t>納期　（旋盤）</t>
@@ -140,149 +145,195 @@
   <si>
     <t>様</t>
   </si>
+  <si>
+    <t>整理
+番号</t>
+    <phoneticPr fontId="24"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="25"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="11"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="15"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="20"/>
       <color indexed="12"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="13"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="20"/>
       <color indexed="10"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -299,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -324,7 +375,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -333,7 +423,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="dashed">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
         <color indexed="8"/>
       </left>
       <right/>
@@ -351,29 +454,14 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
@@ -381,27 +469,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -412,13 +487,73 @@
       <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -431,7 +566,7 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -441,8 +576,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -452,10 +589,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
@@ -464,8 +599,100 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
       <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top/>
@@ -473,54 +700,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thick">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -529,6 +736,75 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -536,9 +812,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -549,221 +823,11 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thick">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thick">
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
         <color indexed="8"/>
       </left>
       <right/>
@@ -774,124 +838,8 @@
     <border>
       <left/>
       <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -914,17 +862,6 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1007,529 +944,692 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="162">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="15" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="15" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="23" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff44546a"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff0c0c0c"/>
-      <rgbColor rgb="ffcc6600"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF44546A"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF0C0C0C"/>
+      <rgbColor rgb="FFCC6600"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>220133</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204259</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>477308</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2912533" y="12925426"/>
-          <a:ext cx="5641976" cy="1"/>
+        <a:xfrm flipV="1">
+          <a:off x="2252134" y="12588874"/>
+          <a:ext cx="4939241" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1549,7 +1649,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1557,20 +1657,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>393699</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>270593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>461093</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="直線コネクタ 2"/>
+        <xdr:cNvPr id="3" name="直線コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1595,7 +1701,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1603,20 +1709,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>2049</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>270593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>560849</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>461093</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="直線コネクタ 5"/>
+        <xdr:cNvPr id="4" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1641,7 +1753,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1649,20 +1761,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1824</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>270665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>671110</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>461021</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 7"/>
+        <xdr:cNvPr id="5" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1687,7 +1805,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1697,7 +1815,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office テーマ">
       <a:dk1>
@@ -1899,7 +2017,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1918,7 +2036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1948,7 +2066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1974,7 +2092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2000,7 +2118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2026,7 +2144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2052,7 +2170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2078,7 +2196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2104,7 +2222,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2130,7 +2248,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2156,7 +2274,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2169,9 +2287,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2188,7 +2312,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2207,7 +2331,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2233,7 +2357,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2259,7 +2383,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2285,7 +2409,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2311,7 +2435,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2337,7 +2461,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2363,7 +2487,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2389,7 +2513,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2415,7 +2539,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2441,7 +2565,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2454,9 +2578,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2470,7 +2600,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2489,7 +2619,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2519,7 +2649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2545,7 +2675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2571,7 +2701,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2597,7 +2727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2623,7 +2753,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2649,7 +2779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2675,7 +2805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2701,7 +2831,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2727,7 +2857,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2740,485 +2870,500 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AH41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="18.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="34" width="8.85156" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="12" width="8.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="17" max="23" width="8.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" style="1" customWidth="1"/>
+    <col min="27" max="30" width="8.875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.875" style="1" customWidth="1"/>
+    <col min="32" max="34" width="8.875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+    <row r="1" spans="1:33" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
-    <row r="2" ht="47.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" t="s" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="3"/>
-      <c r="W2" t="s" s="7">
+    <row r="2" spans="1:33" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="117"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="124"/>
+    </row>
+    <row r="3" spans="1:33" ht="47.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="128"/>
+    </row>
+    <row r="4" spans="1:33" ht="46.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="129" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="130"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="133"/>
+    </row>
+    <row r="5" spans="1:33" ht="35.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="135"/>
+      <c r="T5" s="134" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="135"/>
+      <c r="V5" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="136"/>
+      <c r="AC5" s="136"/>
+      <c r="AD5" s="136"/>
+      <c r="AE5" s="135"/>
+      <c r="AF5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="41.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="76">
         <v>1</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" t="s" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="142"/>
+      <c r="T6" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="144"/>
+      <c r="V6" s="145" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" ht="47.5" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" t="s" s="13">
+    <row r="7" spans="1:33" ht="41.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="76">
         <v>2</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" t="s" s="13">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="142"/>
+      <c r="T7" s="147"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="146"/>
+      <c r="X7" s="146"/>
+      <c r="Y7" s="146"/>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="146"/>
+      <c r="AB7" s="146"/>
+      <c r="AC7" s="146"/>
+      <c r="AD7" s="146"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="63">
         <v>3</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" t="s" s="13">
-        <v>4</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" t="s" s="13">
-        <v>5</v>
-      </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
-      <c r="S3" t="s" s="13">
-        <v>2</v>
-      </c>
-      <c r="T3" s="27"/>
-      <c r="U3" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="V3" s="27"/>
-      <c r="W3" t="s" s="28">
-        <v>7</v>
-      </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" t="s" s="31">
-        <v>8</v>
-      </c>
-      <c r="AA3" s="32"/>
-      <c r="AB3" t="s" s="31">
-        <v>9</v>
-      </c>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="37"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="142"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="146"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="146"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="146"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" ht="47.5" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s" s="38">
-        <v>11</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="26"/>
-      <c r="S4" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="44"/>
-      <c r="W4" t="s" s="45">
-        <v>13</v>
-      </c>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" t="s" s="47">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="48"/>
-      <c r="AB4" t="s" s="49">
-        <v>15</v>
-      </c>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="53"/>
+    <row r="9" spans="1:33" ht="41.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="142"/>
+      <c r="T9" s="147"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="146"/>
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" ht="46.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
-      <c r="S5" t="s" s="56">
-        <v>11</v>
-      </c>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="60"/>
+    <row r="10" spans="1:33" ht="41.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="142"/>
+      <c r="T10" s="147"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="146"/>
+      <c r="X10" s="146"/>
+      <c r="Y10" s="146"/>
+      <c r="Z10" s="146"/>
+      <c r="AA10" s="146"/>
+      <c r="AB10" s="146"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="146"/>
+      <c r="AE10" s="146"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" ht="35.5" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" t="s" s="62">
-        <v>17</v>
-      </c>
-      <c r="C6" s="63"/>
-      <c r="D6" t="s" s="64">
-        <v>18</v>
-      </c>
-      <c r="E6" s="63"/>
-      <c r="F6" t="s" s="64">
-        <v>19</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" t="s" s="64">
-        <v>20</v>
-      </c>
-      <c r="J6" s="63"/>
-      <c r="K6" t="s" s="64">
-        <v>21</v>
-      </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="66"/>
-      <c r="S6" t="s" s="67">
-        <v>22</v>
-      </c>
-      <c r="T6" s="68"/>
-      <c r="U6" t="s" s="67">
-        <v>20</v>
-      </c>
-      <c r="V6" s="68"/>
-      <c r="W6" t="s" s="67">
-        <v>23</v>
-      </c>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" t="s" s="67">
-        <v>24</v>
-      </c>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" t="s" s="70">
-        <v>25</v>
-      </c>
-      <c r="AH6" t="s" s="70">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="41" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="71">
-        <v>1</v>
-      </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" t="s" s="77">
-        <v>27</v>
-      </c>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="66"/>
-      <c r="S7" t="s" s="80">
-        <v>28</v>
-      </c>
-      <c r="T7" s="81"/>
-      <c r="U7" t="s" s="82">
-        <v>29</v>
-      </c>
-      <c r="V7" s="83"/>
-      <c r="W7" t="s" s="84">
-        <v>30</v>
-      </c>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" t="s" s="84">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="41" customHeight="1">
-      <c r="A8" s="61"/>
-      <c r="B8" s="71">
-        <v>2</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="66"/>
-      <c r="S8" t="s" s="80">
-        <v>28</v>
-      </c>
-      <c r="T8" s="81"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="83"/>
-      <c r="W8" t="s" s="84">
-        <v>32</v>
-      </c>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" t="s" s="84">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="41" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="87">
-        <v>3</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" t="s" s="80">
-        <v>28</v>
-      </c>
-      <c r="T9" s="81"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="83"/>
-      <c r="W9" t="s" s="84">
-        <v>32</v>
-      </c>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" t="s" s="84">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="41" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="99"/>
-      <c r="S10" t="s" s="80">
-        <v>28</v>
-      </c>
-      <c r="T10" s="81"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="83"/>
-      <c r="W10" t="s" s="84">
-        <v>32</v>
-      </c>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" t="s" s="84">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="41" customHeight="1">
+    <row r="11" spans="1:33" ht="41.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3228,39 +3373,38 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
-      <c r="S11" t="s" s="80">
-        <v>28</v>
-      </c>
-      <c r="T11" s="81"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="83"/>
-      <c r="W11" t="s" s="84">
-        <v>32</v>
-      </c>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="85"/>
-      <c r="AC11" s="85"/>
-      <c r="AD11" s="85"/>
-      <c r="AE11" s="85"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" t="s" s="84">
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="142"/>
+      <c r="T11" s="147"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="145" t="s">
         <v>31</v>
       </c>
+      <c r="W11" s="146"/>
+      <c r="X11" s="146"/>
+      <c r="Y11" s="146"/>
+      <c r="Z11" s="146"/>
+      <c r="AA11" s="146"/>
+      <c r="AB11" s="146"/>
+      <c r="AC11" s="146"/>
+      <c r="AD11" s="146"/>
+      <c r="AE11" s="146"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" ht="41" customHeight="1">
+    <row r="12" spans="1:33" ht="41.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3270,39 +3414,38 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="102"/>
-      <c r="S12" t="s" s="80">
-        <v>28</v>
-      </c>
-      <c r="T12" s="81"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="83"/>
-      <c r="W12" t="s" s="84">
-        <v>32</v>
-      </c>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="85"/>
-      <c r="AB12" s="85"/>
-      <c r="AC12" s="85"/>
-      <c r="AD12" s="85"/>
-      <c r="AE12" s="85"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" t="s" s="84">
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="142"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="145" t="s">
         <v>31</v>
       </c>
+      <c r="W12" s="146"/>
+      <c r="X12" s="146"/>
+      <c r="Y12" s="146"/>
+      <c r="Z12" s="146"/>
+      <c r="AA12" s="146"/>
+      <c r="AB12" s="146"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="146"/>
+      <c r="AE12" s="146"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" ht="41" customHeight="1">
+    <row r="13" spans="1:33" ht="41.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3312,39 +3455,38 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="99"/>
-      <c r="S13" t="s" s="80">
-        <v>28</v>
-      </c>
-      <c r="T13" s="81"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="83"/>
-      <c r="W13" t="s" s="84">
-        <v>32</v>
-      </c>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="85"/>
-      <c r="AC13" s="85"/>
-      <c r="AD13" s="85"/>
-      <c r="AE13" s="85"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" t="s" s="84">
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="141" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="142"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="145" t="s">
         <v>31</v>
       </c>
+      <c r="W13" s="146"/>
+      <c r="X13" s="146"/>
+      <c r="Y13" s="146"/>
+      <c r="Z13" s="146"/>
+      <c r="AA13" s="146"/>
+      <c r="AB13" s="146"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" ht="41" customHeight="1">
+    <row r="14" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3354,39 +3496,34 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="99"/>
-      <c r="S14" t="s" s="80">
-        <v>28</v>
-      </c>
-      <c r="T14" s="81"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="83"/>
-      <c r="W14" t="s" s="84">
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="85"/>
-      <c r="AE14" s="85"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" t="s" s="84">
-        <v>31</v>
-      </c>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
     </row>
-    <row r="15" ht="30.75" customHeight="1">
+    <row r="15" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3396,35 +3533,32 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="103"/>
-      <c r="S15" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="T15" s="105"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="105"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="105"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="105"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="106"/>
-      <c r="AF15" s="106"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="106"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
     </row>
-    <row r="16" ht="33.75" customHeight="1">
+    <row r="16" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3434,16 +3568,16 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="107"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -3458,9 +3592,8 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
     </row>
-    <row r="17" ht="33.75" customHeight="1">
+    <row r="17" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3470,16 +3603,16 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="107"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
@@ -3494,9 +3627,8 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
     </row>
-    <row r="18" ht="18.75" customHeight="1">
+    <row r="18" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3506,16 +3638,16 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="107"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -3530,9 +3662,8 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
     </row>
-    <row r="19" ht="18.75" customHeight="1">
+    <row r="19" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3543,15 +3674,15 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="107"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -3566,9 +3697,8 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
     </row>
-    <row r="20" ht="25.5" customHeight="1">
+    <row r="20" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3580,13 +3710,13 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -3602,9 +3732,8 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
     </row>
-    <row r="21" ht="25.5" customHeight="1">
+    <row r="21" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3638,9 +3767,8 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
+    <row r="22" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3674,9 +3802,8 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
-      <c r="AH22" s="2"/>
     </row>
-    <row r="23" ht="25.5" customHeight="1">
+    <row r="23" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3710,9 +3837,8 @@
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
+    <row r="24" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3746,9 +3872,8 @@
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
     </row>
-    <row r="25" ht="25.5" customHeight="1">
+    <row r="25" spans="1:33" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3782,9 +3907,8 @@
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
+    <row r="26" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3818,9 +3942,8 @@
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
+    <row r="27" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3837,26 +3960,25 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="53"/>
+      <c r="AF27" s="53"/>
       <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
     </row>
-    <row r="28" ht="18.75" customHeight="1">
+    <row r="28" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3873,26 +3995,25 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
       <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
     </row>
-    <row r="29" ht="18.75" customHeight="1">
+    <row r="29" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3926,9 +4047,8 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
     </row>
-    <row r="30" ht="18.75" customHeight="1">
+    <row r="30" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3962,9 +4082,8 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
     </row>
-    <row r="31" ht="18.75" customHeight="1">
+    <row r="31" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3981,29 +4100,28 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
     </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+    <row r="32" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -4012,227 +4130,221 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="110"/>
-      <c r="S32" s="110"/>
-      <c r="T32" s="110"/>
-      <c r="U32" s="110"/>
-      <c r="V32" s="110"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="110"/>
-      <c r="Z32" s="110"/>
-      <c r="AA32" s="110"/>
-      <c r="AB32" s="110"/>
-      <c r="AC32" s="110"/>
-      <c r="AD32" s="110"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="110"/>
-      <c r="AG32" s="110"/>
-      <c r="AH32" s="110"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+      <c r="N32" s="148"/>
+      <c r="O32" s="148"/>
+      <c r="P32" s="148"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AA32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="36"/>
     </row>
-    <row r="33" ht="9" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+    <row r="33" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="112"/>
-      <c r="R33" s="113"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="114"/>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="114"/>
-      <c r="AB33" s="114"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="114"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="113"/>
+      <c r="L33" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" s="153"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="151"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="41"/>
     </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="55"/>
-      <c r="B34" t="s" s="115">
-        <v>34</v>
-      </c>
-      <c r="C34" s="116"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="55"/>
-      <c r="N34" t="s" s="120">
+    <row r="34" spans="1:33" ht="26.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="58"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="121"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="122"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="123"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="123"/>
-      <c r="W34" s="123"/>
-      <c r="X34" s="123"/>
-      <c r="Y34" s="123"/>
-      <c r="Z34" s="123"/>
-      <c r="AA34" s="123"/>
-      <c r="AB34" s="123"/>
-      <c r="AC34" s="123"/>
-      <c r="AD34" s="123"/>
-      <c r="AE34" s="123"/>
-      <c r="AF34" s="123"/>
-      <c r="AG34" s="123"/>
-      <c r="AH34" s="124"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="157"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="151"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
     </row>
-    <row r="35" ht="26.75" customHeight="1">
-      <c r="A35" s="55"/>
-      <c r="B35" t="s" s="125">
-        <v>28</v>
-      </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="127"/>
-      <c r="E35" t="s" s="128">
+    <row r="35" spans="1:33" ht="26.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="60"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="130"/>
-      <c r="N35" t="s" s="131">
-        <v>28</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="126"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="132"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="123"/>
-      <c r="U35" s="123"/>
-      <c r="V35" s="123"/>
-      <c r="W35" s="123"/>
-      <c r="X35" s="123"/>
-      <c r="Y35" s="123"/>
-      <c r="Z35" s="123"/>
-      <c r="AA35" s="123"/>
-      <c r="AB35" s="123"/>
-      <c r="AC35" s="123"/>
-      <c r="AD35" s="123"/>
-      <c r="AE35" s="123"/>
-      <c r="AF35" s="123"/>
-      <c r="AG35" s="123"/>
-      <c r="AH35" s="123"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="151"/>
+      <c r="Q35" s="148"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
     </row>
-    <row r="36" ht="26.75" customHeight="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="135"/>
-      <c r="E36" t="s" s="128">
+    <row r="36" spans="1:33" ht="26.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="148"/>
+      <c r="P36" s="148"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+    </row>
+    <row r="37" spans="1:33" ht="26.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="134"/>
-      <c r="P36" s="134"/>
-      <c r="Q36" s="135"/>
-      <c r="R36" s="136"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
-      <c r="U36" s="109"/>
-      <c r="V36" s="109"/>
-      <c r="W36" s="109"/>
-      <c r="X36" s="109"/>
-      <c r="Y36" s="109"/>
-      <c r="Z36" s="109"/>
-      <c r="AA36" s="109"/>
-      <c r="AB36" s="109"/>
-      <c r="AC36" s="109"/>
-      <c r="AD36" s="109"/>
-      <c r="AE36" s="109"/>
-      <c r="AF36" s="109"/>
-      <c r="AG36" s="109"/>
-      <c r="AH36" s="109"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="53"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
     </row>
-    <row r="37" ht="26.75" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
-      <c r="P37" s="121"/>
-      <c r="Q37" s="121"/>
-      <c r="R37" s="119"/>
-      <c r="S37" s="119"/>
-      <c r="T37" s="119"/>
-      <c r="U37" s="119"/>
-      <c r="V37" s="119"/>
-      <c r="W37" s="119"/>
-      <c r="X37" s="119"/>
-      <c r="Y37" s="119"/>
-      <c r="Z37" s="119"/>
-      <c r="AA37" s="119"/>
-      <c r="AB37" s="119"/>
-      <c r="AC37" s="119"/>
-      <c r="AD37" s="119"/>
-      <c r="AE37" s="119"/>
-      <c r="AF37" s="119"/>
-      <c r="AG37" s="119"/>
-      <c r="AH37" s="119"/>
-    </row>
-    <row r="38" ht="26.75" customHeight="1">
+    <row r="38" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="B38" t="s" s="139">
-        <v>38</v>
-      </c>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -4258,15 +4370,16 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="140"/>
-      <c r="AE38" s="140"/>
-      <c r="AF38" s="140"/>
-      <c r="AG38" s="140"/>
-      <c r="AH38" s="140"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="101"/>
+      <c r="AE38" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF38" s="102"/>
+      <c r="AG38" s="103"/>
     </row>
-    <row r="39" ht="19.5" customHeight="1">
+    <row r="39" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4294,17 +4407,14 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="141"/>
-      <c r="AD39" s="142"/>
-      <c r="AE39" s="143"/>
-      <c r="AF39" t="s" s="144">
-        <v>39</v>
-      </c>
-      <c r="AG39" s="145"/>
-      <c r="AH39" s="146"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="106"/>
+      <c r="AD39" s="107"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="104"/>
+      <c r="AG39" s="105"/>
     </row>
-    <row r="40" ht="19.5" customHeight="1">
+    <row r="40" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4332,154 +4442,115 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="141"/>
-      <c r="AD40" s="147"/>
-      <c r="AE40" s="148"/>
-      <c r="AF40" s="149"/>
-      <c r="AG40" s="150"/>
-      <c r="AH40" s="151"/>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="141"/>
-      <c r="AD41" s="152"/>
-      <c r="AE41" s="153"/>
-      <c r="AF41" s="153"/>
-      <c r="AG41" s="153"/>
-      <c r="AH41" s="154"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="110"/>
+      <c r="AE40" s="110"/>
+      <c r="AF40" s="110"/>
+      <c r="AG40" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:AH5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AG39:AH40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AD41:AH41"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AG28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="B38:Q38"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="E35:M35"/>
-    <mergeCell ref="N35:Q36"/>
-    <mergeCell ref="E36:M36"/>
+  <mergeCells count="93">
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:Z10"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:AG4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AC38:AD38"/>
+    <mergeCell ref="AF38:AG39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AC40:AG40"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:AF27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:AD28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:P5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:P6"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="L34:O35"/>
   </mergeCells>
+  <phoneticPr fontId="24"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="44" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>